--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ntrk2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H2">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J2">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5314143333333333</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N2">
-        <v>1.594243</v>
+        <v>2.589273</v>
       </c>
       <c r="O2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P2">
-        <v>0.01762280440365445</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q2">
-        <v>4.708301234130666</v>
+        <v>5.313709790660999</v>
       </c>
       <c r="R2">
-        <v>42.374711107176</v>
+        <v>47.82338811594899</v>
       </c>
       <c r="S2">
-        <v>0.008672408199880898</v>
+        <v>0.01122960368458178</v>
       </c>
       <c r="T2">
-        <v>0.008672408199880896</v>
+        <v>0.01122960368458178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H3">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J3">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>74.184296</v>
       </c>
       <c r="O3">
-        <v>0.8200351754599551</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P3">
-        <v>0.820035175459955</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q3">
-        <v>219.0895694131414</v>
+        <v>152.2411194062942</v>
       </c>
       <c r="R3">
-        <v>1971.806124718272</v>
+        <v>1370.170074656648</v>
       </c>
       <c r="S3">
-        <v>0.4035498333270346</v>
+        <v>0.3217351911906181</v>
       </c>
       <c r="T3">
-        <v>0.4035498333270346</v>
+        <v>0.3217351911906181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.859944</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H4">
-        <v>26.579832</v>
+        <v>18.469813</v>
       </c>
       <c r="I4">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J4">
-        <v>0.4921128329655918</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.895411333333333</v>
+        <v>4.080109666666666</v>
       </c>
       <c r="N4">
-        <v>14.686234</v>
+        <v>12.240329</v>
       </c>
       <c r="O4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="P4">
-        <v>0.1623420201363905</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="Q4">
-        <v>43.37307027029866</v>
+        <v>25.11962085427522</v>
       </c>
       <c r="R4">
-        <v>390.357632432688</v>
+        <v>226.076587688477</v>
       </c>
       <c r="S4">
-        <v>0.07989059143867629</v>
+        <v>0.05308596028263268</v>
       </c>
       <c r="T4">
-        <v>0.07989059143867629</v>
+        <v>0.05308596028263268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.867977666666666</v>
+        <v>6.156604333333333</v>
       </c>
       <c r="H5">
-        <v>17.603933</v>
+        <v>18.469813</v>
       </c>
       <c r="I5">
-        <v>0.325928370802587</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="J5">
-        <v>0.325928370802587</v>
+        <v>0.3861700262161295</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5314143333333333</v>
+        <v>0.009167</v>
       </c>
       <c r="N5">
-        <v>1.594243</v>
+        <v>0.027501</v>
       </c>
       <c r="O5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="P5">
-        <v>0.01762280440365445</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="Q5">
-        <v>3.118327439746555</v>
+        <v>0.05643759192366667</v>
       </c>
       <c r="R5">
-        <v>28.064946957719</v>
+        <v>0.5079383273129999</v>
       </c>
       <c r="S5">
-        <v>0.00574377192825575</v>
+        <v>0.0001192710582969364</v>
       </c>
       <c r="T5">
-        <v>0.005743771928255749</v>
+        <v>0.0001192710582969364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H6">
         <v>17.603933</v>
       </c>
       <c r="I6">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J6">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.72809866666667</v>
+        <v>0.8630909999999999</v>
       </c>
       <c r="N6">
-        <v>74.184296</v>
+        <v>2.589273</v>
       </c>
       <c r="O6">
-        <v>0.8200351754599551</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="P6">
-        <v>0.820035175459955</v>
+        <v>0.029079428547613</v>
       </c>
       <c r="Q6">
-        <v>145.1039307151298</v>
+        <v>5.064598712301001</v>
       </c>
       <c r="R6">
-        <v>1305.935376436168</v>
+        <v>45.581388410709</v>
       </c>
       <c r="S6">
-        <v>0.2672727287384767</v>
+        <v>0.0107031506426151</v>
       </c>
       <c r="T6">
-        <v>0.2672727287384767</v>
+        <v>0.0107031506426151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.867977666666666</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H7">
         <v>17.603933</v>
       </c>
       <c r="I7">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J7">
-        <v>0.325928370802587</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.895411333333333</v>
+        <v>24.72809866666667</v>
       </c>
       <c r="N7">
-        <v>14.686234</v>
+        <v>74.184296</v>
       </c>
       <c r="O7">
-        <v>0.1623420201363905</v>
+        <v>0.833143872773158</v>
       </c>
       <c r="P7">
-        <v>0.1623420201363905</v>
+        <v>0.8331438727731579</v>
       </c>
       <c r="Q7">
-        <v>28.72616437314688</v>
+        <v>145.1039307151298</v>
       </c>
       <c r="R7">
-        <v>258.5354793583219</v>
+        <v>1305.935376436168</v>
       </c>
       <c r="S7">
-        <v>0.05291187013585453</v>
+        <v>0.3066519812334771</v>
       </c>
       <c r="T7">
-        <v>0.05291187013585454</v>
+        <v>0.3066519812334771</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>3.275965666666667</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H8">
-        <v>9.827897</v>
+        <v>17.603933</v>
       </c>
       <c r="I8">
-        <v>0.1819587962318212</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J8">
-        <v>0.1819587962318212</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5314143333333333</v>
+        <v>4.080109666666666</v>
       </c>
       <c r="N8">
-        <v>1.594243</v>
+        <v>12.240329</v>
       </c>
       <c r="O8">
-        <v>0.01762280440365445</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="P8">
-        <v>0.01762280440365445</v>
+        <v>0.137467842346008</v>
       </c>
       <c r="Q8">
-        <v>1.740895110774555</v>
+        <v>23.94199240155078</v>
       </c>
       <c r="R8">
-        <v>15.668055996971</v>
+        <v>215.477931613957</v>
       </c>
       <c r="S8">
-        <v>0.003206624275517801</v>
+        <v>0.05059724687283661</v>
       </c>
       <c r="T8">
-        <v>0.0032066242755178</v>
+        <v>0.05059724687283661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3.275965666666667</v>
+        <v>5.867977666666667</v>
       </c>
       <c r="H9">
-        <v>9.827897</v>
+        <v>17.603933</v>
       </c>
       <c r="I9">
-        <v>0.1819587962318212</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="J9">
-        <v>0.1819587962318212</v>
+        <v>0.3680660582820729</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>24.72809866666667</v>
+        <v>0.009167</v>
       </c>
       <c r="N9">
-        <v>74.184296</v>
+        <v>0.027501</v>
       </c>
       <c r="O9">
-        <v>0.8200351754599551</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="P9">
-        <v>0.820035175459955</v>
+        <v>0.0003088563332209099</v>
       </c>
       <c r="Q9">
-        <v>81.00840223394577</v>
+        <v>0.05379175127033334</v>
       </c>
       <c r="R9">
-        <v>729.075620105512</v>
+        <v>0.4841257614330001</v>
       </c>
       <c r="S9">
-        <v>0.1492126133944437</v>
+        <v>0.0001136795331440748</v>
       </c>
       <c r="T9">
-        <v>0.1492126133944437</v>
+        <v>0.0001136795331440748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.918147666666667</v>
+      </c>
+      <c r="H10">
+        <v>11.754443</v>
+      </c>
+      <c r="I10">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="J10">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8630909999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.589273</v>
+      </c>
+      <c r="O10">
+        <v>0.029079428547613</v>
+      </c>
+      <c r="P10">
+        <v>0.029079428547613</v>
+      </c>
+      <c r="Q10">
+        <v>3.381717987771001</v>
+      </c>
+      <c r="R10">
+        <v>30.435461889939</v>
+      </c>
+      <c r="S10">
+        <v>0.00714667422041612</v>
+      </c>
+      <c r="T10">
+        <v>0.00714667422041612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>3.275965666666667</v>
-      </c>
-      <c r="H10">
-        <v>9.827897</v>
-      </c>
-      <c r="I10">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="J10">
-        <v>0.1819587962318212</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.895411333333333</v>
-      </c>
-      <c r="N10">
-        <v>14.686234</v>
-      </c>
-      <c r="O10">
-        <v>0.1623420201363905</v>
-      </c>
-      <c r="P10">
-        <v>0.1623420201363905</v>
-      </c>
-      <c r="Q10">
-        <v>16.03719945221088</v>
-      </c>
-      <c r="R10">
-        <v>144.334795069898</v>
-      </c>
-      <c r="S10">
-        <v>0.02953955856185969</v>
-      </c>
-      <c r="T10">
-        <v>0.02953955856185969</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.918147666666667</v>
+      </c>
+      <c r="H11">
+        <v>11.754443</v>
+      </c>
+      <c r="I11">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="J11">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.72809866666667</v>
+      </c>
+      <c r="N11">
+        <v>74.184296</v>
+      </c>
+      <c r="O11">
+        <v>0.833143872773158</v>
+      </c>
+      <c r="P11">
+        <v>0.8331438727731579</v>
+      </c>
+      <c r="Q11">
+        <v>96.88834209190314</v>
+      </c>
+      <c r="R11">
+        <v>871.9950788271282</v>
+      </c>
+      <c r="S11">
+        <v>0.2047567003490628</v>
+      </c>
+      <c r="T11">
+        <v>0.2047567003490627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.918147666666667</v>
+      </c>
+      <c r="H12">
+        <v>11.754443</v>
+      </c>
+      <c r="I12">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="J12">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.080109666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.240329</v>
+      </c>
+      <c r="O12">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="P12">
+        <v>0.137467842346008</v>
+      </c>
+      <c r="Q12">
+        <v>15.98647217019411</v>
+      </c>
+      <c r="R12">
+        <v>143.878249531747</v>
+      </c>
+      <c r="S12">
+        <v>0.03378463519053874</v>
+      </c>
+      <c r="T12">
+        <v>0.03378463519053874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.918147666666667</v>
+      </c>
+      <c r="H13">
+        <v>11.754443</v>
+      </c>
+      <c r="I13">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="J13">
+        <v>0.2457639155017975</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009167</v>
+      </c>
+      <c r="N13">
+        <v>0.027501</v>
+      </c>
+      <c r="O13">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="P13">
+        <v>0.0003088563332209099</v>
+      </c>
+      <c r="Q13">
+        <v>0.03591765966033334</v>
+      </c>
+      <c r="R13">
+        <v>0.3232589369430001</v>
+      </c>
+      <c r="S13">
+        <v>7.590574177989873E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.590574177989873E-05</v>
       </c>
     </row>
   </sheetData>
